--- a/methane/data/methane_data.xlsx
+++ b/methane/data/methane_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7950" tabRatio="719" activeTab="2"/>
+    <workbookView windowWidth="20145" windowHeight="8400" tabRatio="719" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CCmd" sheetId="1" r:id="rId1"/>
@@ -134,42 +134,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -185,10 +157,40 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,23 +202,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,9 +248,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,22 +264,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,16 +285,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,14 +298,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -308,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,17 +502,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,15 +526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -552,15 +537,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,6 +558,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -590,160 +599,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1276,7 +1276,6 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10"/>
-      <c r="C10" s="1"/>
       <c r="D10"/>
     </row>
     <row r="13" spans="2:2">
@@ -1423,7 +1422,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -1746,7 +1745,6 @@
         <v>-24.075938</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13"/>
       <c r="F13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1758,7 +1756,6 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
-      <c r="C15"/>
       <c r="D15" s="1"/>
     </row>
     <row r="17" spans="2:4">
@@ -1773,8 +1770,8 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <f>0.943538796^3</f>
-        <v>0.839999999830921</v>
+        <f>0.98648483^3</f>
+        <v>0.960000000781865</v>
       </c>
     </row>
   </sheetData>

--- a/methane/data/methane_data.xlsx
+++ b/methane/data/methane_data.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>V</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>vol</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
   <si>
     <t>ref</t>
@@ -134,14 +140,43 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -156,6 +191,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -164,13 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -179,77 +291,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,43 +304,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -308,85 +314,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,96 +495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,16 +518,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,6 +547,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -556,26 +582,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,162 +605,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1419,19 +1425,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="12.625"/>
     <col min="3" max="3" width="13.75"/>
     <col min="4" max="4" width="10.375"/>
     <col min="5" max="6" width="12.625"/>
     <col min="7" max="7" width="13.75"/>
+    <col min="8" max="8" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
@@ -1451,325 +1458,385 @@
         <v>-24.075938</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>-387.33706</v>
-      </c>
-      <c r="C2">
-        <f>B2/16</f>
-        <v>-24.20856625</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.06</v>
-      </c>
-      <c r="E2">
-        <v>781.697039427058</v>
-      </c>
-      <c r="F2">
+      <c r="D2">
+        <v>1.1</v>
+      </c>
+      <c r="H2">
         <f>D2^(1/3)</f>
-        <v>1.01961282242222</v>
-      </c>
-      <c r="G2">
-        <f>C2+24.075938</f>
-        <v>-0.13262825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+        <v>1.03228011545637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2">
-        <v>-371.20502</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C13" si="0">B3/16</f>
-        <v>-23.20031375</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.04</v>
-      </c>
-      <c r="E3">
-        <v>782.697039427058</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F15" si="1">D3^(1/3)</f>
-        <v>1.01315940382018</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G12" si="2">C3+24.075938</f>
-        <v>0.875624250000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="D3">
+        <v>1.08</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H12" si="0">D3^(1/3)</f>
+        <v>1.02598556800602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>-387.33706</v>
+      </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B4/16</f>
+        <v>-24.20856625</v>
       </c>
       <c r="D4" s="1">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="E4">
-        <v>783.697039427058</v>
+        <v>781.697039427058</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>1.00662270956011</v>
+        <f>D4^(1/3)</f>
+        <v>1.01961282242222</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
-        <v>24.075938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <f>C4+24.075938</f>
+        <v>-0.13262825</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1.01961282242222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>-387.24424</v>
+        <v>-371.20502</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>-24.202765</v>
+        <f t="shared" ref="C5:C15" si="1">B5/16</f>
+        <v>-23.20031375</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="E5">
-        <v>784.697039427058</v>
+        <v>782.697039427058</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="F5:F17" si="2">D5^(1/3)</f>
+        <v>1.01315940382018</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
-        <v>-0.126826999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <f t="shared" ref="G5:G14" si="3">C5+24.075938</f>
+        <v>0.875624250000001</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.01315940382018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="E6">
-        <v>785.697039427058</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0.993288388379269</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>24.075938</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-387.48843</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>-24.218026875</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="E7">
-        <v>786.697039427058</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0.986484829732188</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>-0.142088874999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-387.47668</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-24.2172925</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="E8">
-        <v>787.697039427058</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.979586108715562</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>-0.141354499999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>-387.14309</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-24.196443125</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="E9">
-        <v>788.697039427058</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0.972588826218856</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>-0.120505124999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-387.29938</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>-24.20621125</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E10">
-        <v>789.697039427058</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0.96548938460563</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>-0.130273249999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3">
-        <v>-387.11276</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>-24.1945475</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="E11">
-        <v>790.697039427058</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0.943538796063307</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>-0.118609499999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3">
-        <v>-372.47085</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>-23.279428125</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="E12">
-        <v>791.697039427058</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0.912580527077393</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>0.796509875000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3">
-        <v>-24.075938</v>
-      </c>
-      <c r="C13">
-        <f>B13</f>
-        <v>-24.075938</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="F13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
+      <c r="D6" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="E6">
+        <v>783.697039427058</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1.00662270956011</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>24.075938</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.00662270956011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-387.24424</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>-24.202765</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>784.697039427058</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>-0.126826999999999</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E8">
+        <v>785.697039427058</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0.993288388379269</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>24.075938</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.993288388379269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-387.48843</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>-24.218026875</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E9">
+        <v>786.697039427058</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.986484829732188</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>-0.142088874999999</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.986484829732188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-387.47668</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>-24.2172925</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E10">
+        <v>787.697039427058</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.979586108715562</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>-0.141354499999998</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.979586108715562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-387.14309</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>-24.196443125</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E11">
+        <v>788.697039427058</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.972588826218856</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>-0.120505124999998</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.972588826218856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-387.29938</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>-24.20621125</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E12">
+        <v>789.697039427058</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.96548938460563</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>-0.130273249999998</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.96548938460563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-387.11276</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>-24.1945475</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E13">
+        <v>790.697039427058</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.943538796063307</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>-0.118609499999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-372.47085</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>-23.279428125</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E14">
+        <v>791.697039427058</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.912580527077393</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0.796509875000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>-24.075938</v>
+      </c>
+      <c r="C15">
+        <f>B15</f>
+        <v>-24.075938</v>
+      </c>
       <c r="D15" s="1"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17">
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
         <f>0.68^(1/3)</f>
         <v>0.879365934431636</v>
       </c>
-      <c r="D17">
-        <f>0.76*E5</f>
+      <c r="D19">
+        <f>0.76*E7</f>
         <v>596.369749964564</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18">
+    <row r="20" spans="2:2">
+      <c r="B20">
         <f>0.98648483^3</f>
         <v>0.960000000781865</v>
       </c>

--- a/methane/data/methane_data.xlsx
+++ b/methane/data/methane_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="8400" tabRatio="719" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="719" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CCmd" sheetId="1" r:id="rId1"/>
@@ -140,10 +140,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -156,6 +156,72 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,53 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +253,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +275,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -254,52 +292,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,17 +517,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,15 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -578,6 +563,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,165 +605,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,26 +1107,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.625" style="1"/>
-    <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="13.75" style="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="12.625" style="2"/>
+    <col min="3" max="3" width="19.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="13.75" style="2"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -1131,151 +1134,151 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>781.697039427058</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>1.06</v>
       </c>
       <c r="D2">
         <v>-0.13262825</v>
       </c>
       <c r="E2"/>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <f>D2+E2</f>
         <v>-0.13262825</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3">
         <v>784.697039427058</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3">
         <v>-0.126826999999999</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F9" si="0">D3+E3</f>
         <v>-0.126826999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4">
         <v>786.697039427058</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.96</v>
       </c>
       <c r="D4">
         <v>-0.142088874999999</v>
       </c>
       <c r="E4"/>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>-0.142088874999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5">
         <v>787.697039427058</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.94</v>
       </c>
       <c r="D5">
         <v>-0.141354499999998</v>
       </c>
       <c r="E5"/>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>-0.141354499999998</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <v>788.697039427058</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.92</v>
       </c>
       <c r="D6">
         <v>-0.120505124999998</v>
       </c>
       <c r="E6"/>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>-0.120505124999998</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <v>789.697039427058</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.9</v>
       </c>
       <c r="D7">
         <v>-0.130273249999998</v>
       </c>
       <c r="E7"/>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>-0.130273249999998</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8">
         <v>790.697039427058</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.84</v>
       </c>
       <c r="D8">
         <v>-0.118609499999998</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>-0.118609499999998</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9">
         <v>791.697039427058</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.76</v>
       </c>
       <c r="D9">
         <v>0.796509875000002</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>0.796509875000002</v>
       </c>
@@ -1309,7 +1312,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1">
@@ -1321,7 +1324,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
@@ -1333,7 +1336,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3">
@@ -1345,7 +1348,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -1357,7 +1360,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5">
@@ -1369,7 +1372,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6">
@@ -1381,7 +1384,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7">
@@ -1393,7 +1396,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8">
@@ -1405,7 +1408,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9">
@@ -1428,20 +1431,20 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.625"/>
     <col min="3" max="3" width="13.75"/>
     <col min="4" max="4" width="10.375"/>
     <col min="5" max="6" width="12.625"/>
-    <col min="7" max="7" width="13.75"/>
-    <col min="8" max="8" width="12.625"/>
+    <col min="7" max="8" width="13.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:8">
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -1457,43 +1460,54 @@
       <c r="G1">
         <v>-24.075938</v>
       </c>
+      <c r="H1">
+        <v>-555.102055764075</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2">
         <v>1.1</v>
       </c>
+      <c r="G2">
+        <f>C2/2.611E+22*6.02*1E+23</f>
+        <v>0</v>
+      </c>
       <c r="H2">
-        <f>D2^(1/3)</f>
-        <v>1.03228011545637</v>
+        <f>G2+555.102055764075</f>
+        <v>555.102055764075</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3">
         <v>1.08</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G14" si="0">C3/2.611E+22*6.02*1E+23</f>
+        <v>0</v>
+      </c>
       <c r="H3">
-        <f t="shared" ref="H3:H12" si="0">D3^(1/3)</f>
-        <v>1.02598556800602</v>
+        <f t="shared" ref="H3:H14" si="1">G3+555.102055764075</f>
+        <v>555.102055764075</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>-387.33706</v>
       </c>
       <c r="C4">
         <f>B4/16</f>
         <v>-24.20856625</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>1.06</v>
       </c>
       <c r="E4">
@@ -1504,326 +1518,338 @@
         <v>1.01961282242222</v>
       </c>
       <c r="G4">
-        <f>C4+24.075938</f>
-        <v>-0.13262825</v>
+        <f t="shared" si="0"/>
+        <v>-558.159972520107</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>1.01961282242222</v>
+        <f t="shared" si="1"/>
+        <v>-3.05791675603211</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
-        <v>-371.20502</v>
+      <c r="B5" s="3">
+        <v>-387.36412</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C15" si="1">B5/16</f>
-        <v>-23.20031375</v>
-      </c>
-      <c r="D5" s="1">
+        <f t="shared" ref="C5:C15" si="2">B5/16</f>
+        <v>-24.2102575</v>
+      </c>
+      <c r="D5" s="2">
         <v>1.04</v>
       </c>
       <c r="E5">
         <v>782.697039427058</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F17" si="2">D5^(1/3)</f>
+        <f t="shared" ref="F5:F17" si="3">D5^(1/3)</f>
         <v>1.01315940382018</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G14" si="3">C5+24.075938</f>
-        <v>0.875624250000001</v>
+        <f t="shared" si="0"/>
+        <v>-558.198966487936</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>1.01315940382018</v>
+        <f t="shared" si="1"/>
+        <v>-3.09691072386056</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>1.02</v>
       </c>
       <c r="E6">
         <v>783.697039427058</v>
       </c>
       <c r="F6">
+        <f t="shared" si="3"/>
+        <v>1.00662270956011</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>555.102055764075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-387.24424</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="2"/>
-        <v>1.00662270956011</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>24.075938</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>1.00662270956011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-387.24424</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
         <v>-24.202765</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7">
         <v>784.697039427058</v>
       </c>
       <c r="F7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-558.026217158177</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-2.92416139410193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>-0.126826999999999</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.98</v>
       </c>
       <c r="E8">
         <v>785.697039427058</v>
       </c>
       <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.993288388379269</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>555.102055764075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-387.48843</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="2"/>
-        <v>0.993288388379269</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>24.075938</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0.993288388379269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>-387.48843</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
         <v>-24.218026875</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.96</v>
       </c>
       <c r="E9">
         <v>786.697039427058</v>
       </c>
       <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.986484829732188</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-558.378099530831</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-3.27604376675606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-387.47668</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="2"/>
-        <v>0.986484829732188</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>-0.142088874999999</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0.986484829732188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-387.47668</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
         <v>-24.2172925</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.94</v>
       </c>
       <c r="E10">
         <v>787.697039427058</v>
       </c>
       <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.979586108715562</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-558.361167560322</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-3.25911179624666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-387.14309</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="2"/>
-        <v>0.979586108715562</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>-0.141354499999998</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0.979586108715562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>-387.14309</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
         <v>-24.196443125</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.92</v>
       </c>
       <c r="E11">
         <v>788.697039427058</v>
       </c>
       <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0.972588826218856</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-557.88045810992</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-2.7784023458446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-387.29938</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="2"/>
-        <v>0.972588826218856</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>-0.120505124999998</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0.972588826218856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-387.29938</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
         <v>-24.20621125</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.9</v>
       </c>
       <c r="E12">
         <v>789.697039427058</v>
       </c>
       <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.96548938460563</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-558.105674932976</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>-3.00361916890074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-387.11276</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="2"/>
-        <v>0.96548938460563</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>-0.130273249999998</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0.96548938460563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>-387.11276</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
         <v>-24.1945475</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.84</v>
       </c>
       <c r="E13">
         <v>790.697039427058</v>
       </c>
       <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.943538796063307</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-557.836752010724</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>-2.73469624664881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-372.47085</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="2"/>
-        <v>0.943538796063307</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>-0.118609499999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>-372.47085</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
         <v>-23.279428125</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.76</v>
       </c>
       <c r="E14">
         <v>791.697039427058</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.912580527077393</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
-        <v>0.796509875000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>-536.737484919571</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>18.364570844504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>-24.075938</v>
       </c>
       <c r="C15">
         <f>B15</f>
         <v>-24.075938</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="2"/>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="G15">
+        <f>C15/2.611E+22*6.02*1E+23</f>
+        <v>-555.102055764075</v>
+      </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19">

--- a/methane/data/methane_data.xlsx
+++ b/methane/data/methane_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="719" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="719"/>
   </bookViews>
   <sheets>
     <sheet name="CCmd" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,24 @@
     <t>a</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>z01</t>
   </si>
   <si>
+    <t>z02</t>
+  </si>
+  <si>
     <t>z03</t>
   </si>
   <si>
@@ -102,34 +117,19 @@
     <t>z06</t>
   </si>
   <si>
+    <t>QM</t>
+  </si>
+  <si>
+    <t>vol%</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
     <t>z07</t>
   </si>
   <si>
     <t>z08</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>z02</t>
-  </si>
-  <si>
-    <t>QM</t>
-  </si>
-  <si>
-    <t>vol%</t>
-  </si>
-  <si>
-    <t>vol</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
   </si>
   <si>
     <t>ref</t>
@@ -141,8 +141,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -154,24 +154,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,20 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -207,23 +187,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,6 +201,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -243,17 +246,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,39 +283,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,15 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -536,32 +527,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -605,155 +570,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,10 +761,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,32 +1109,32 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="12.625" style="2"/>
-    <col min="3" max="3" width="19.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="13.75" style="2"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="12.625" style="5"/>
+    <col min="3" max="3" width="19.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="13.75" style="5"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -1134,158 +1142,189 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>781.697039427058</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.06</v>
+        <v>863.166743369764</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.1</v>
       </c>
       <c r="D2">
         <v>-0.13262825</v>
       </c>
       <c r="E2"/>
-      <c r="F2" s="2">
-        <f>D2+E2</f>
-        <v>-0.13262825</v>
+      <c r="F2">
+        <v>-3.0068758713137</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>784.697039427058</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
+        <v>847.472802581223</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.08</v>
       </c>
       <c r="D3">
         <v>-0.126826999999999</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F9" si="0">D3+E3</f>
-        <v>-0.126826999999999</v>
+      <c r="F3">
+        <v>-3.03486045576403</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>786.697039427058</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.96</v>
+        <v>831.778861792682</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.06</v>
       </c>
       <c r="D4">
         <v>-0.142088874999999</v>
       </c>
       <c r="E4"/>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.142088874999999</v>
+      <c r="F4">
+        <v>-3.0582626005363</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>787.697039427058</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.94</v>
+        <v>816.08492100414</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.04</v>
       </c>
       <c r="D5">
         <v>-0.141354499999998</v>
       </c>
       <c r="E5"/>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.141354499999998</v>
+      <c r="F5">
+        <v>-2.95486950402153</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>788.697039427058</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.92</v>
+        <v>800.390980215599</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.02</v>
       </c>
       <c r="D6">
         <v>-0.120505124999998</v>
       </c>
       <c r="E6"/>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.120505124999998</v>
+      <c r="F6">
+        <v>-2.93842747989277</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>789.697039427058</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.9</v>
+        <v>784.697039427058</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
       </c>
       <c r="D7">
         <v>-0.130273249999998</v>
       </c>
       <c r="E7"/>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.130273249999998</v>
+      <c r="F7">
+        <v>-3.12901662198385</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>790.697039427058</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.84</v>
+        <v>769.003098638517</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.98</v>
       </c>
       <c r="D8">
         <v>-0.118609499999998</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.118609499999998</v>
+      <c r="F8">
+        <v>-2.90194088471844</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>791.697039427058</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.76</v>
+        <v>753.309157849976</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.96</v>
       </c>
       <c r="D9">
         <v>0.796509875000002</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.796509875000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10"/>
+      <c r="F9">
+        <v>-3.27625991957098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>737.615217061434</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.94</v>
+      </c>
       <c r="D10"/>
+      <c r="F10">
+        <v>-3.25937117962462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>721.921276272893</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="F11">
+        <v>-2.77929577748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>706.227335484352</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F12">
+        <v>-3.00408029490609</v>
+      </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13"/>
@@ -1312,7 +1351,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B1">
@@ -1324,8 +1363,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
+      <c r="A2" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>29.8913799</v>
@@ -1336,8 +1375,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
+      <c r="A3" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
         <v>30.495898</v>
@@ -1348,8 +1387,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
         <v>31.1166284</v>
@@ -1360,8 +1399,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
+      <c r="A5" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B5">
         <v>31.7568846</v>
@@ -1372,8 +1411,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
+      <c r="A6" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B6">
         <v>32.4174621</v>
@@ -1384,8 +1423,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
+      <c r="A7" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B7">
         <v>33.0976486</v>
@@ -1396,8 +1435,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
+      <c r="A8" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B8">
         <v>33.8007879</v>
@@ -1408,8 +1447,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
+      <c r="A9" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B9">
         <v>34.525767</v>
@@ -1428,30 +1467,30 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.625"/>
+    <col min="2" max="2" width="12.625" style="2"/>
     <col min="3" max="3" width="13.75"/>
-    <col min="4" max="4" width="10.375"/>
+    <col min="4" max="4" width="10.375" style="3"/>
     <col min="5" max="6" width="12.625"/>
     <col min="7" max="8" width="13.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E1" t="s">
@@ -1468,50 +1507,73 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="B2" s="4">
+        <v>-387.30164</v>
+      </c>
+      <c r="C2">
+        <f>B2/16</f>
+        <v>-24.2063525</v>
+      </c>
+      <c r="D2" s="3">
         <v>1.1</v>
+      </c>
+      <c r="E2">
+        <f>D2*784.697039427058</f>
+        <v>863.166743369764</v>
       </c>
       <c r="G2">
         <f>C2/2.611E+22*6.02*1E+23</f>
-        <v>0</v>
+        <v>-558.108931635389</v>
       </c>
       <c r="H2">
         <f>G2+555.102055764075</f>
-        <v>555.102055764075</v>
+        <v>-3.0068758713137</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-387.32106</v>
+      </c>
+      <c r="C3">
+        <f>B3/16</f>
+        <v>-24.20756625</v>
+      </c>
+      <c r="D3" s="3">
         <v>1.08</v>
       </c>
+      <c r="E3">
+        <f>D3*784.697039427058</f>
+        <v>847.472802581223</v>
+      </c>
       <c r="G3">
-        <f t="shared" ref="G3:G14" si="0">C3/2.611E+22*6.02*1E+23</f>
-        <v>0</v>
+        <f t="shared" ref="G3:G12" si="0">C3/2.611E+22*6.02*1E+23</f>
+        <v>-558.136916219839</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H14" si="1">G3+555.102055764075</f>
-        <v>555.102055764075</v>
+        <v>-3.03486045576403</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3">
-        <v>-387.33706</v>
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>-387.3373</v>
       </c>
       <c r="C4">
         <f>B4/16</f>
-        <v>-24.20856625</v>
-      </c>
-      <c r="D4" s="2">
+        <v>-24.20858125</v>
+      </c>
+      <c r="D4" s="5">
         <v>1.06</v>
       </c>
       <c r="E4">
-        <v>781.697039427058</v>
+        <f>D4*784.697039427058</f>
+        <v>831.778861792682</v>
       </c>
       <c r="F4">
         <f>D4^(1/3)</f>
@@ -1519,29 +1581,30 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>-558.159972520107</v>
+        <v>-558.160318364611</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>-3.05791675603211</v>
+        <v>-3.0582626005363</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3">
-        <v>-387.36412</v>
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>-387.26555</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C15" si="2">B5/16</f>
-        <v>-24.2102575</v>
-      </c>
-      <c r="D5" s="2">
+        <v>-24.204096875</v>
+      </c>
+      <c r="D5" s="5">
         <v>1.04</v>
       </c>
       <c r="E5">
-        <v>782.697039427058</v>
+        <f>D5*784.697039427058</f>
+        <v>816.08492100414</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F17" si="3">D5^(1/3)</f>
@@ -1549,27 +1612,30 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>-558.198966487936</v>
+        <v>-558.056925268097</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>-3.09691072386056</v>
+        <v>-2.95486950402153</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3"/>
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-387.25414</v>
+      </c>
       <c r="C6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
+        <v>-24.20338375</v>
+      </c>
+      <c r="D6" s="5">
         <v>1.02</v>
       </c>
       <c r="E6">
-        <v>783.697039427058</v>
+        <f>D6*784.697039427058</f>
+        <v>800.390980215599</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
@@ -1577,28 +1643,29 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-558.040483243968</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>555.102055764075</v>
+        <v>-2.93842747989277</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-387.24424</v>
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-387.3864</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>-24.202765</v>
-      </c>
-      <c r="D7" s="2">
+        <v>-24.21165</v>
+      </c>
+      <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7">
+        <f>D7*784.697039427058</f>
         <v>784.697039427058</v>
       </c>
       <c r="F7">
@@ -1607,27 +1674,30 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>-558.026217158177</v>
+        <v>-558.231072386059</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>-2.92416139410193</v>
+        <v>-3.12901662198385</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-387.22882</v>
+      </c>
       <c r="C8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
+        <v>-24.20180125</v>
+      </c>
+      <c r="D8" s="5">
         <v>0.98</v>
       </c>
       <c r="E8">
-        <v>785.697039427058</v>
+        <f>D8*784.697039427058</f>
+        <v>769.003098638517</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
@@ -1635,29 +1705,30 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-558.003996648793</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>555.102055764075</v>
+        <v>-2.90194088471844</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>-387.48843</v>
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-387.48858</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>-24.218026875</v>
-      </c>
-      <c r="D9" s="2">
+        <v>-24.21803625</v>
+      </c>
+      <c r="D9" s="5">
         <v>0.96</v>
       </c>
       <c r="E9">
-        <v>786.697039427058</v>
+        <f>D9*784.697039427058</f>
+        <v>753.309157849976</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
@@ -1665,29 +1736,30 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>-558.378099530831</v>
+        <v>-558.378315683646</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>-3.27604376675606</v>
+        <v>-3.27625991957098</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>-387.47668</v>
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-387.47686</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>-24.2172925</v>
-      </c>
-      <c r="D10" s="2">
+        <v>-24.21730375</v>
+      </c>
+      <c r="D10" s="5">
         <v>0.94</v>
       </c>
       <c r="E10">
-        <v>787.697039427058</v>
+        <f>D10*784.697039427058</f>
+        <v>737.615217061434</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
@@ -1695,29 +1767,30 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>-558.361167560322</v>
+        <v>-558.3614269437</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>-3.25911179624666</v>
+        <v>-3.25937117962462</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>-387.14309</v>
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6">
+        <v>-387.14371</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>-24.196443125</v>
-      </c>
-      <c r="D11" s="2">
+        <v>-24.196481875</v>
+      </c>
+      <c r="D11" s="5">
         <v>0.92</v>
       </c>
       <c r="E11">
-        <v>788.697039427058</v>
+        <f>D11*784.697039427058</f>
+        <v>721.921276272893</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
@@ -1725,29 +1798,30 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-557.88045810992</v>
+        <v>-557.881351541555</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>-2.7784023458446</v>
+        <v>-2.77929577748</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>-387.29938</v>
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-387.2997</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>-24.20621125</v>
-      </c>
-      <c r="D12" s="2">
+        <v>-24.20623125</v>
+      </c>
+      <c r="D12" s="5">
         <v>0.9</v>
       </c>
       <c r="E12">
-        <v>789.697039427058</v>
+        <f>D12*784.697039427058</f>
+        <v>706.227335484352</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
@@ -1755,16 +1829,16 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>-558.105674932976</v>
+        <v>-558.106136058981</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>-3.00361916890074</v>
+        <v>-3.00408029490609</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
+      <c r="A13" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="4">
         <v>-387.11276</v>
@@ -1773,18 +1847,16 @@
         <f t="shared" si="2"/>
         <v>-24.1945475</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>0.84</v>
       </c>
-      <c r="E13">
-        <v>790.697039427058</v>
-      </c>
+      <c r="E13"/>
       <c r="F13">
         <f t="shared" si="3"/>
         <v>0.943538796063307</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f>C13/2.611E+22*6.02*1E+23</f>
         <v>-557.836752010724</v>
       </c>
       <c r="H13">
@@ -1793,8 +1865,8 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
+      <c r="A14" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="4">
         <v>-372.47085</v>
@@ -1803,18 +1875,16 @@
         <f t="shared" si="2"/>
         <v>-23.279428125</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>0.76</v>
       </c>
-      <c r="E14">
-        <v>791.697039427058</v>
-      </c>
+      <c r="E14"/>
       <c r="F14">
         <f t="shared" si="3"/>
         <v>0.912580527077393</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>C14/2.611E+22*6.02*1E+23</f>
         <v>-536.737484919571</v>
       </c>
       <c r="H14">
@@ -1823,7 +1893,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4">
@@ -1833,7 +1903,7 @@
         <f>B15</f>
         <v>-24.075938</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="5"/>
       <c r="F15">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1844,27 +1914,17 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="2"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="4"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19">
-        <f>0.68^(1/3)</f>
-        <v>0.879365934431636</v>
-      </c>
-      <c r="D19">
-        <f>0.76*E7</f>
-        <v>596.369749964564</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20">
-        <f>0.98648483^3</f>
-        <v>0.960000000781865</v>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18">
+        <f>11.7079000473*8.1892995834*8.18420028689999</f>
+        <v>784.697039427057</v>
       </c>
     </row>
   </sheetData>

--- a/methane/data/methane_data.xlsx
+++ b/methane/data/methane_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="719"/>
+    <workbookView windowWidth="15990" windowHeight="8370" tabRatio="719" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CCmd" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>V</t>
   </si>
@@ -75,13 +75,13 @@
     <t>vol ratio</t>
   </si>
   <si>
-    <t>QM per atom</t>
+    <t>QM</t>
   </si>
   <si>
     <t>PN</t>
   </si>
   <si>
-    <t>QM kcal/mol</t>
+    <t>QMPN</t>
   </si>
   <si>
     <t>a</t>
@@ -117,13 +117,16 @@
     <t>z06</t>
   </si>
   <si>
-    <t>QM</t>
+    <t>QM per atom</t>
   </si>
   <si>
     <t>vol%</t>
   </si>
   <si>
     <t>vol</t>
+  </si>
+  <si>
+    <t>Edisp ev</t>
   </si>
   <si>
     <t>z07</t>
@@ -140,8 +143,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -154,55 +157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,10 +173,70 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,8 +247,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,30 +285,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,23 +300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,7 +317,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,37 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,19 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,73 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +544,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -552,30 +575,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,165 +594,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,16 +764,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,6 +824,1373 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Edisp/Total QM</a:t>
+            </a:r>
+            <a:endParaRPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0575335405377158"/>
+          <c:y val="0.154459158560882"/>
+          <c:w val="0.901913935451589"/>
+          <c:h val="0.823000898472597"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Edisp"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Edisp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'draft-QM'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>863.166743369764</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>847.472802581223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>831.778861792682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>816.08492100414</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800.390980215599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>784.697039427058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>769.003098638517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>753.309157849976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>737.615217061434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>721.921276272893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>706.227335484352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'draft-QM'!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.36446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.41996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.47766</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.55787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.61938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.67338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.75005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.80614</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.87882</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.96575</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.0401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"QM"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'draft-QM'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>863.166743369764</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>847.472802581223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>831.778861792682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>816.08492100414</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800.390980215599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>784.697039427058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>769.003098638517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>753.309157849976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>737.615217061434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>721.921276272893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>706.227335484352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'draft-QM'!$J$2:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.30164000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.32105999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.33730000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.26555000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.25414000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.38639999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.22881999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.48858000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.47685999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.14371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.29969999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="708468712"/>
+        <c:axId val="950596962"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="708468712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="870"/>
+          <c:min val="700"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950596962"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="950596962"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708468712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="pct5">
+      <a:fgClr>
+        <a:schemeClr val="accent1"/>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="bg1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="eaVert"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>667385</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>250190</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3362960" y="487680"/>
+        <a:ext cx="7326630" cy="4425950"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>429260</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438785</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3915410" y="1400175"/>
+          <a:ext cx="1933575" cy="972185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>orange: QM - 385 (ev)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>blue:     Edisp (ev)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.142879090490091</cdr:x>
+      <cdr:y>0.236024844720497</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.373252419726533</cdr:x>
+      <cdr:y>0.422360248447205</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Text Box 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1181100" y="1085850"/>
+          <a:ext cx="1904365" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.192425871869719</cdr:x>
+      <cdr:y>0.505175983436853</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.383699493009679</cdr:x>
+      <cdr:y>0.666666666666667</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Text Box 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1590675" y="2324100"/>
+          <a:ext cx="1581150" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1107,224 +2471,328 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="12.625" style="5"/>
-    <col min="3" max="3" width="19.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="13.75" style="5"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="12.625" style="2"/>
+    <col min="3" max="3" width="19.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="13.75" style="2"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="9.375" style="2"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:8">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>863.166743369764</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>1.1</v>
       </c>
       <c r="D2">
-        <v>-0.13262825</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2">
         <v>-3.0068758713137</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F12" si="0">D2+E2</f>
+        <v>-3.0068758713137</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G12" si="1">E2+F2</f>
+        <v>-3.0068758713137</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3">
         <v>847.472802581223</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>1.08</v>
       </c>
       <c r="D3">
-        <v>-0.126826999999999</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3">
         <v>-3.03486045576403</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.03486045576403</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.03486045576403</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4">
         <v>831.778861792682</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>1.06</v>
       </c>
       <c r="D4">
-        <v>-0.142088874999999</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4">
         <v>-3.0582626005363</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.0582626005363</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.0582626005363</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5">
         <v>816.08492100414</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>1.04</v>
       </c>
       <c r="D5">
-        <v>-0.141354499999998</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5">
         <v>-2.95486950402153</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.95486950402153</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.95486950402153</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <v>800.390980215599</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>1.02</v>
       </c>
       <c r="D6">
-        <v>-0.120505124999998</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6">
         <v>-2.93842747989277</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.93842747989277</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.93842747989277</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <v>784.697039427058</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>-0.130273249999998</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7">
         <v>-3.12901662198385</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.12901662198385</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.12901662198385</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8">
         <v>769.003098638517</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>0.98</v>
       </c>
       <c r="D8">
-        <v>-0.118609499999998</v>
-      </c>
-      <c r="F8">
         <v>-2.90194088471844</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.90194088471844</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.90194088471844</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9">
         <v>753.309157849976</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>0.96</v>
       </c>
       <c r="D9">
-        <v>0.796509875000002</v>
-      </c>
-      <c r="F9">
         <v>-3.27625991957098</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.27625991957098</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.27625991957098</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10">
         <v>737.615217061434</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>0.94</v>
       </c>
-      <c r="D10"/>
-      <c r="F10">
+      <c r="D10">
         <v>-3.25937117962462</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.25937117962462</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.25937117962462</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11">
         <v>721.921276272893</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>0.92</v>
       </c>
-      <c r="F11">
+      <c r="D11">
         <v>-2.77929577748</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.77929577748</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.77929577748</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12">
         <v>706.227335484352</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>0.9</v>
       </c>
-      <c r="F12">
+      <c r="D12">
         <v>-3.00408029490609</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.00408029490609</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.00408029490609</v>
+      </c>
+      <c r="H12"/>
     </row>
     <row r="13" spans="2:2">
       <c r="B13"/>
@@ -1351,7 +2819,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1">
@@ -1363,7 +2831,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -1375,7 +2843,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3">
@@ -1387,7 +2855,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4">
@@ -1399,7 +2867,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5">
@@ -1411,7 +2879,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6">
@@ -1423,7 +2891,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7">
@@ -1435,7 +2903,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8">
@@ -1447,7 +2915,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9">
@@ -1467,30 +2935,31 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E2:E12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.625" style="2"/>
     <col min="3" max="3" width="13.75"/>
-    <col min="4" max="4" width="10.375" style="3"/>
+    <col min="4" max="4" width="10.375" style="1"/>
     <col min="5" max="6" width="12.625"/>
     <col min="7" max="8" width="13.75"/>
+    <col min="10" max="10" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:9">
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E1" t="s">
@@ -1502,23 +2971,26 @@
       <c r="H1">
         <v>-555.102055764075</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>-387.30164</v>
       </c>
       <c r="C2">
         <f>B2/16</f>
         <v>-24.2063525</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>1.1</v>
       </c>
       <c r="E2">
-        <f>D2*784.697039427058</f>
+        <f t="shared" ref="E2:E12" si="0">D2*784.697039427058</f>
         <v>863.166743369764</v>
       </c>
       <c r="G2">
@@ -1529,50 +3001,64 @@
         <f>G2+555.102055764075</f>
         <v>-3.0068758713137</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="4">
+        <v>-2.36446</v>
+      </c>
+      <c r="J2">
+        <f>B2+385</f>
+        <v>-2.30164000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>-387.32106</v>
       </c>
       <c r="C3">
         <f>B3/16</f>
         <v>-24.20756625</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>1.08</v>
       </c>
       <c r="E3">
-        <f>D3*784.697039427058</f>
+        <f t="shared" si="0"/>
         <v>847.472802581223</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G12" si="0">C3/2.611E+22*6.02*1E+23</f>
+        <f t="shared" ref="G3:G15" si="1">C3/2.611E+22*6.02*1E+23</f>
         <v>-558.136916219839</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H14" si="1">G3+555.102055764075</f>
+        <f t="shared" ref="H3:H14" si="2">G3+555.102055764075</f>
         <v>-3.03486045576403</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="I3" s="4">
+        <v>-2.41996</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J12" si="3">B3+385</f>
+        <v>-2.32105999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>-387.3373</v>
       </c>
       <c r="C4">
         <f>B4/16</f>
         <v>-24.20858125</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>1.06</v>
       </c>
       <c r="E4">
-        <f>D4*784.697039427058</f>
+        <f t="shared" si="0"/>
         <v>831.778861792682</v>
       </c>
       <c r="F4">
@@ -1580,346 +3066,399 @@
         <v>1.01961282242222</v>
       </c>
       <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-558.160318364611</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>-3.0582626005363</v>
+      </c>
+      <c r="I4" s="4">
+        <v>-2.47766</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>-2.33730000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-387.26555</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C15" si="4">B5/16</f>
+        <v>-24.204096875</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>-558.160318364611</v>
-      </c>
-      <c r="H4">
+        <v>816.08492100414</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F17" si="5">D5^(1/3)</f>
+        <v>1.01315940382018</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>-3.0582626005363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
-        <v>-387.26555</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C15" si="2">B5/16</f>
-        <v>-24.204096875</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.04</v>
-      </c>
-      <c r="E5">
-        <f>D5*784.697039427058</f>
-        <v>816.08492100414</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F17" si="3">D5^(1/3)</f>
-        <v>1.01315940382018</v>
-      </c>
-      <c r="G5">
+        <v>-558.056925268097</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>-2.95486950402153</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-2.55787</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>-2.26555000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-387.25414</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="4"/>
+        <v>-24.20338375</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>-558.056925268097</v>
-      </c>
-      <c r="H5">
+        <v>800.390980215599</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>1.00662270956011</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>-2.95486950402153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6">
-        <v>-387.25414</v>
-      </c>
-      <c r="C6">
+        <v>-558.040483243968</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="2"/>
-        <v>-24.20338375</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="E6">
-        <f>D6*784.697039427058</f>
-        <v>800.390980215599</v>
-      </c>
-      <c r="F6">
+        <v>-2.93842747989277</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-2.61938</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="3"/>
-        <v>1.00662270956011</v>
-      </c>
-      <c r="G6">
+        <v>-2.25414000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-387.3864</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="4"/>
+        <v>-24.21165</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>-558.040483243968</v>
-      </c>
-      <c r="H6">
+        <v>784.697039427058</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>-2.93842747989277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-387.3864</v>
-      </c>
-      <c r="C7">
+        <v>-558.231072386059</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="2"/>
-        <v>-24.21165</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f>D7*784.697039427058</f>
-        <v>784.697039427058</v>
-      </c>
-      <c r="F7">
+        <v>-3.12901662198385</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-2.67338</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G7">
+        <v>-2.38639999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-387.22882</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="4"/>
+        <v>-24.20180125</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>-558.231072386059</v>
-      </c>
-      <c r="H7">
+        <v>769.003098638517</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="5"/>
+        <v>0.993288388379269</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>-3.12901662198385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6">
-        <v>-387.22882</v>
-      </c>
-      <c r="C8">
+        <v>-558.003996648793</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="2"/>
-        <v>-24.20180125</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="E8">
-        <f>D8*784.697039427058</f>
-        <v>769.003098638517</v>
-      </c>
-      <c r="F8">
+        <v>-2.90194088471844</v>
+      </c>
+      <c r="I8" s="4">
+        <v>-2.75005</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="3"/>
-        <v>0.993288388379269</v>
-      </c>
-      <c r="G8">
+        <v>-2.22881999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-387.48858</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="4"/>
+        <v>-24.21803625</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>-558.003996648793</v>
-      </c>
-      <c r="H8">
+        <v>753.309157849976</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>0.986484829732188</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v>-2.90194088471844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6">
-        <v>-387.48858</v>
-      </c>
-      <c r="C9">
+        <v>-558.378315683646</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="2"/>
-        <v>-24.21803625</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="E9">
-        <f>D9*784.697039427058</f>
-        <v>753.309157849976</v>
-      </c>
-      <c r="F9">
+        <v>-3.27625991957098</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-2.80614</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="3"/>
-        <v>0.986484829732188</v>
-      </c>
-      <c r="G9">
+        <v>-2.48858000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-387.47686</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>-24.21730375</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>-558.378315683646</v>
-      </c>
-      <c r="H9">
+        <v>737.615217061434</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>0.979586108715562</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>-3.27625991957098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6">
-        <v>-387.47686</v>
-      </c>
-      <c r="C10">
+        <v>-558.3614269437</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="2"/>
-        <v>-24.21730375</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="E10">
-        <f>D10*784.697039427058</f>
-        <v>737.615217061434</v>
-      </c>
-      <c r="F10">
+        <v>-3.25937117962462</v>
+      </c>
+      <c r="I10" s="4">
+        <v>-2.87882</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.979586108715562</v>
-      </c>
-      <c r="G10">
+        <v>-2.47685999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-387.14371</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>-24.196481875</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>-558.3614269437</v>
-      </c>
-      <c r="H10">
+        <v>721.921276272893</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>0.972588826218856</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>-3.25937117962462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6">
-        <v>-387.14371</v>
-      </c>
-      <c r="C11">
+        <v>-557.881351541555</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="2"/>
-        <v>-24.196481875</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="E11">
-        <f>D11*784.697039427058</f>
-        <v>721.921276272893</v>
-      </c>
-      <c r="F11">
+        <v>-2.77929577748</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-2.96575</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="3"/>
-        <v>0.972588826218856</v>
-      </c>
-      <c r="G11">
+        <v>-2.14371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-387.2997</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>-24.20623125</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>-557.881351541555</v>
-      </c>
-      <c r="H11">
+        <v>706.227335484352</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>0.96548938460563</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v>-2.77929577748</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="6">
-        <v>-387.2997</v>
-      </c>
-      <c r="C12">
+        <v>-558.106136058981</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="2"/>
-        <v>-24.20623125</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E12">
-        <f>D12*784.697039427058</f>
-        <v>706.227335484352</v>
-      </c>
-      <c r="F12">
+        <v>-3.00408029490609</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-3.0401</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="3"/>
-        <v>0.96548938460563</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>-558.106136058981</v>
-      </c>
-      <c r="H12">
+        <v>-2.29969999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-387.11276</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>-24.1945475</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>0.943538796063307</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v>-3.00408029490609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4">
-        <v>-387.11276</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="2"/>
-        <v>-24.1945475</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>0.943538796063307</v>
-      </c>
-      <c r="G13">
-        <f>C13/2.611E+22*6.02*1E+23</f>
         <v>-557.836752010724</v>
       </c>
-      <c r="H13">
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-372.47085</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>-23.279428125</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>0.912580527077393</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
-        <v>-2.73469624664881</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4">
-        <v>-372.47085</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="2"/>
-        <v>-23.279428125</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.76</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>0.912580527077393</v>
-      </c>
-      <c r="G14">
-        <f>C14/2.611E+22*6.02*1E+23</f>
         <v>-536.737484919571</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>18.364570844504</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
         <v>-24.075938</v>
       </c>
       <c r="C15">
         <f>B15</f>
         <v>-24.075938</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="2"/>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>C15/2.611E+22*6.02*1E+23</f>
+        <f t="shared" si="1"/>
         <v>-555.102055764075</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="5"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="3:3">
       <c r="C18">
@@ -1930,5 +3469,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/methane/data/methane_data.xlsx
+++ b/methane/data/methane_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15990" windowHeight="8370" tabRatio="719" activeTab="2"/>
+    <workbookView windowWidth="15990" windowHeight="9405" tabRatio="719" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CCmd" sheetId="1" r:id="rId1"/>
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -160,15 +160,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,17 +195,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,22 +220,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,58 +238,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,6 +256,57 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,13 +317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,19 +335,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,73 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +389,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,19 +437,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,13 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,39 +508,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,8 +525,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,6 +551,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,151 +599,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1889,16 +1889,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>667385</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>509905</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>250190</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>113030</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>208915</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1906,8 +1906,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3362960" y="487680"/>
-        <a:ext cx="7326630" cy="4425950"/>
+        <a:off x="2157730" y="9525"/>
+        <a:ext cx="9176385" cy="6115050"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1920,15 +1920,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>429260</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>200660</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>438785</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
+      <xdr:colOff>794385</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1937,8 +1937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3915410" y="1400175"/>
-          <a:ext cx="1933575" cy="972185"/>
+          <a:off x="3501390" y="921385"/>
+          <a:ext cx="2703195" cy="1762125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2074,7 +2074,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -2082,7 +2082,7 @@
             </a:rPr>
             <a:t>orange: QM - 385 (ev)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
@@ -2092,7 +2092,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2106,7 +2106,7 @@
             </a:rPr>
             <a:t>blue:     Edisp (ev)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -2139,8 +2139,8 @@
     </cdr:to>
     <cdr:sp>
       <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="Text Box 1"/>
-        <cdr:cNvSpPr txBox="1"/>
+        <cdr:cNvPr id="2" name="Rectangle 1"/>
+        <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2170,8 +2170,8 @@
     </cdr:to>
     <cdr:sp>
       <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="Text Box 3"/>
-        <cdr:cNvSpPr txBox="1"/>
+        <cdr:cNvPr id="3" name="Rectangle 2"/>
+        <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2937,8 +2937,8 @@
   <sheetPr/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
